--- a/BackTest/2020-01-13 BackTest DAD.xlsx
+++ b/BackTest/2020-01-13 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-75109.44839999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-78212.00079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-87602.9825</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-87602.9825</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-85645.6568</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-85402.37209999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-94680.95129999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-94582.18629999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-92936.12459999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-80302.83464156698</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-82185.09184156697</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-83218.81904156697</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-86345.46964156696</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-85596.75554156696</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-86848.04144156697</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-84907.37424156697</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-86089.72424156698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-87632.06354156698</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-91808.47754156697</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-91221.11884156697</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-90038.76884156697</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-88979.54934156696</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-88732.19924156697</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-112234.921241567</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-86727.83204156697</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-86740.02574156698</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-86810.20774156698</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-85790.20774156698</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-86189.19024156698</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-84069.88734156698</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-84665.12604156698</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-70303.99474156699</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-72803.99474156699</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-89328.63084156699</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-92834.40324156699</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-93155.218641567</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-93155.218641567</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-90251.15234156701</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-106322.351158475</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-105157.941558475</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-103795.917258475</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-103695.917258475</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-103782.897258475</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-91652.047827066</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-95642.952027066</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-95729.932027066</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-95697.858827066</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-95834.24872706599</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-95697.85872706599</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-95681.82212706599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-95745.43212706599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-96465.18682706599</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96481.223427066</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-112882.241227066</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-111903.079427066</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-114254.340827066</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-115858.108627066</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-129502.894927066</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -13552,11 +13552,17 @@
         <v>-291129.5848374148</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>197</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,7 +13591,7 @@
         <v>-290824.9062487619</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>196.1</v>
@@ -13593,7 +13599,7 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13624,7 +13630,7 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>198.3</v>
@@ -13663,11 +13669,9 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>199.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13702,7 +13706,7 @@
         <v>-288674.3022487619</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>199.9</v>
@@ -13926,11 +13930,9 @@
         <v>-281609.9446487619</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -13965,11 +13967,9 @@
         <v>-281586.7421487619</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>197.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14004,11 +14004,9 @@
         <v>-281331.5993487619</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14783,11 +14781,9 @@
         <v>-280558.3337487619</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14822,11 +14818,9 @@
         <v>-280555.2820487619</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>200.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15083,11 +15077,9 @@
         <v>-282514.2636487619</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>200.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15122,11 +15114,9 @@
         <v>-284394.3483487619</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15435,6 +15425,6 @@
       <c r="M449" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DAD.xlsx
+++ b/BackTest/2020-01-13 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75417.3903</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-75109.44839999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-78212.00079999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-87602.9825</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-87602.9825</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-85645.6568</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-85402.37209999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-94680.95129999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-94582.18629999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-92936.12459999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-80302.83464156698</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-82185.09184156697</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-84907.37424156697</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-86089.72424156698</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-87632.06354156698</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-91221.11884156697</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-90038.76884156697</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-86727.83204156697</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-86740.02574156698</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-86810.20774156698</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-85790.20774156698</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-86189.19024156698</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-92937.89544156697</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-88149.66204156697</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-84069.88734156698</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-89328.63084156699</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-90670.51524156699</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-91343.91644156698</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-90161.603841567</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-91178.43334156701</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-91103.26244156701</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-90149.09475847501</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-103695.917258475</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-103782.897258475</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-91652.047827066</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-95697.858827066</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-95834.24872706599</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-95697.85872706599</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-95681.82212706599</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-95745.43212706599</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-96465.18682706599</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96481.223427066</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-112882.241227066</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-111903.079427066</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-114254.340827066</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-115858.108627066</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-129502.894927066</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-149210.623727066</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-182061.439027066</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-143593.386627066</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-141028.668527066</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-141167.199627066</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-141114.815827066</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-140188.455127066</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-140211.963527066</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-140235.963527066</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-140215.963527066</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-140216.257027066</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-153333.809327066</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-144011.719227066</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-144257.798527066</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-144607.465627066</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-144596.703627066</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-145034.373627066</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-145020.373627066</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-136447.433027066</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-137834.770727066</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-137831.770727066</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-140532.817927066</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-141806.204327066</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -13420,10 +13420,14 @@
         <v>-290223.7650374149</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>194</v>
+      </c>
+      <c r="J395" t="n">
+        <v>194</v>
+      </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
@@ -13453,11 +13457,19 @@
         <v>-289858.4330374149</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>195</v>
+      </c>
+      <c r="J396" t="n">
+        <v>194</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13498,19 @@
         <v>-290552.0977374149</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="J397" t="n">
+        <v>194</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13552,17 +13572,11 @@
         <v>-291129.5848374148</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13591,17 +13605,11 @@
         <v>-290824.9062487619</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>196.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13630,17 +13638,11 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>198.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13673,11 +13675,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13706,17 +13704,11 @@
         <v>-288674.3022487619</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>199.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13749,11 +13741,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13786,11 +13774,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +13807,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13860,11 +13840,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13897,11 +13873,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13934,11 +13906,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +13939,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14008,11 +13972,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14045,11 +14005,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14082,11 +14038,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14119,11 +14071,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14156,11 +14104,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14193,11 +14137,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14230,11 +14170,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14267,11 +14203,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14304,11 +14236,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14341,11 +14269,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14378,11 +14302,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14415,11 +14335,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +14368,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14489,11 +14401,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14526,11 +14434,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14563,11 +14467,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14600,11 +14500,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14637,11 +14533,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14566,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14711,11 +14599,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14748,11 +14632,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14785,11 +14665,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14822,11 +14698,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14859,11 +14731,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14896,11 +14764,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +14797,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +14830,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15007,11 +14863,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15044,11 +14896,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15081,11 +14929,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15118,11 +14962,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15155,11 +14995,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15192,11 +15028,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15229,11 +15061,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15266,11 +15094,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15303,11 +15127,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15340,11 +15160,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15377,11 +15193,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15414,17 +15226,13 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
       <c r="M449" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DAD.xlsx
+++ b/BackTest/2020-01-13 BackTest DAD.xlsx
@@ -1408,7 +1408,7 @@
         <v>-85586.83724156697</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-86440.65714156698</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-86433.44974156698</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-86436.44974156698</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-86394.85974156698</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-86394.85974156698</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-80216.88274156698</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-80302.83464156698</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-83218.81904156697</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-85596.75554156696</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-86848.04144156697</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-92937.89544156697</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-88149.66204156697</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-84069.88734156698</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-84665.12604156698</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-89328.63084156699</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-90670.51524156699</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-91343.91644156698</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-92834.40324156699</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-90161.603841567</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-90251.15234156701</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-91103.26244156701</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-103795.917258475</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-95642.952027066</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-95697.858827066</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-95834.24872706599</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-95681.82212706599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-95745.43212706599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96481.223427066</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-149210.623727066</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-182061.439027066</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-143593.386627066</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-141028.668527066</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-141167.199627066</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-141114.815827066</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-140188.455127066</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-140211.963527066</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-140235.963527066</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-140215.963527066</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-140216.257027066</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-153333.809327066</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-144011.719227066</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-144257.798527066</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-144607.465627066</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-144596.703627066</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-145034.373627066</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-145020.373627066</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-136447.433027066</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-137834.770727066</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-137831.770727066</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-140532.817927066</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-141806.204327066</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -13024,10 +13024,14 @@
         <v>-267471.1780374149</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>200</v>
+      </c>
+      <c r="J383" t="n">
+        <v>200</v>
+      </c>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
@@ -13060,8 +13064,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>200</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>200</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13139,19 @@
         <v>-268906.3189374148</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>199</v>
+      </c>
+      <c r="J386" t="n">
+        <v>200</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13183,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>200</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13222,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>200</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13261,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>200</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13300,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>200</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13339,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>200</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +13378,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>200</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13417,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>200</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +13456,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>200</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,15 +13492,17 @@
         <v>-290223.7650374149</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>194</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,17 +13531,15 @@
         <v>-289858.4330374149</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13498,17 +13570,15 @@
         <v>-290552.0977374149</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>196.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13539,11 +13609,19 @@
         <v>-290237.5203374149</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>196</v>
+      </c>
+      <c r="J398" t="n">
+        <v>200</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13572,11 +13650,19 @@
         <v>-291129.5848374148</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>197</v>
+      </c>
+      <c r="J399" t="n">
+        <v>200</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13605,11 +13691,19 @@
         <v>-290824.9062487619</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="J400" t="n">
+        <v>200</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13638,11 +13732,19 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="J401" t="n">
+        <v>200</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13671,11 +13773,19 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="J402" t="n">
+        <v>200</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +13817,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>200</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13740,8 +13856,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>200</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13773,8 +13895,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>200</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13806,8 +13934,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>200</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13839,8 +13973,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>200</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13872,8 +14012,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>200</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13905,8 +14051,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>200</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +14090,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>200</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13971,8 +14129,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>200</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14001,11 +14165,19 @@
         <v>-280582.0398487619</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>200</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +14209,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>200</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14070,8 +14248,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>200</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14103,8 +14287,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>200</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14136,8 +14326,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>200</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14169,8 +14365,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>200</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14202,8 +14404,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>200</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14232,11 +14440,19 @@
         <v>-279125.2433487619</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="J419" t="n">
+        <v>200</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14265,11 +14481,19 @@
         <v>-279125.2433487619</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="J420" t="n">
+        <v>200</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14301,8 +14525,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>200</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14331,11 +14561,19 @@
         <v>-280633.7957487619</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="J422" t="n">
+        <v>200</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +14602,19 @@
         <v>-280651.7957487619</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="J423" t="n">
+        <v>200</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14397,11 +14643,19 @@
         <v>-280602.2857487619</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="J424" t="n">
+        <v>200</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14430,11 +14684,19 @@
         <v>-280620.2857487619</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>202</v>
+      </c>
+      <c r="J425" t="n">
+        <v>200</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14463,11 +14725,19 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="J426" t="n">
+        <v>200</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14496,11 +14766,19 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="J427" t="n">
+        <v>200</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14529,11 +14807,19 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="J428" t="n">
+        <v>200</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14565,8 +14851,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>200</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14598,8 +14890,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>200</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14631,8 +14929,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>200</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14661,11 +14965,19 @@
         <v>-280558.3337487619</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>202</v>
+      </c>
+      <c r="J432" t="n">
+        <v>200</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +15006,19 @@
         <v>-280555.2820487619</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="J433" t="n">
+        <v>200</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14727,11 +15047,19 @@
         <v>-280591.2820487619</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>202</v>
+      </c>
+      <c r="J434" t="n">
+        <v>200</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14763,8 +15091,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>200</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +15127,19 @@
         <v>-280534.1709487619</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="J436" t="n">
+        <v>200</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14829,8 +15171,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>200</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14862,8 +15210,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>200</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14892,11 +15246,19 @@
         <v>-281572.9723487619</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="J439" t="n">
+        <v>200</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14925,11 +15287,19 @@
         <v>-282514.2636487619</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="J440" t="n">
+        <v>200</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14961,8 +15331,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>200</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14994,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>200</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15027,8 +15409,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>200</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15060,8 +15448,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>200</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15093,8 +15487,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>200</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15126,8 +15526,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>200</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15156,11 +15562,19 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J447" t="n">
+        <v>200</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15189,11 +15603,19 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="J448" t="n">
+        <v>200</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15222,11 +15644,19 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="J449" t="n">
+        <v>200</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
